--- a/src/test/resources/data/informacion.xlsx
+++ b/src/test/resources/data/informacion.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -35,9 +35,6 @@
     <t xml:space="preserve">numero</t>
   </si>
   <si>
-    <t xml:space="preserve">alias</t>
-  </si>
-  <si>
     <t xml:space="preserve">daredevil@gmail.com</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t xml:space="preserve">3007888777</t>
   </si>
   <si>
-    <t xml:space="preserve">daredevil</t>
-  </si>
-  <si>
     <t xml:space="preserve">mooknight@gmail.com</t>
   </si>
   <si>
@@ -150,6 +144,9 @@
   </si>
   <si>
     <t xml:space="preserve">producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llanta</t>
   </si>
 </sst>
 </file>
@@ -239,7 +236,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,10 +246,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -281,10 +274,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -308,176 +301,160 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="2"/>
@@ -511,7 +488,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -521,7 +498,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/informacion.xlsx
+++ b/src/test/resources/data/informacion.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -35,112 +35,133 @@
     <t xml:space="preserve">numero</t>
   </si>
   <si>
+    <t xml:space="preserve">payasobebe@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chispitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariposa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadpool@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mooknight@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3007888778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nightcrawler@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wagner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3007888779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punisher@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3007888777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghostrider@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blaze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">webslinger@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sentry@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reynolds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bluemarvel@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brashear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taskmaster@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spiderkaine@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reilly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackbolt@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boltagon</t>
+  </si>
+  <si>
     <t xml:space="preserve">daredevil@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Wade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3007888777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mooknight@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3007888778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nightcrawler@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wagner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3007888779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">punisher@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghostrider@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blaze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">webslinger@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sentry@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reynolds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bluemarvel@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brashear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taskmaster@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spiderkaine@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benjamin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reilly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blackbolt@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blackagar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boltagon</t>
+    <t xml:space="preserve">Matt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murdock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3006235418</t>
   </si>
   <si>
     <t xml:space="preserve">producto</t>
@@ -236,7 +257,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -250,6 +271,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -274,10 +303,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -306,74 +335,74 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="n">
+        <v>3115447788</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="4" t="n">
+        <v>3001234567</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -383,11 +412,11 @@
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -397,11 +426,11 @@
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -411,11 +440,11 @@
         <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -425,11 +454,11 @@
         <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -439,11 +468,11 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -453,25 +482,52 @@
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="2"/>
+      <c r="A13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="daredevil@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="mooknight@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="nightcrawler@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="punisher@gmail.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="ghostrider@gmail.com"/>
-    <hyperlink ref="A7" r:id="rId6" display="webslinger@gmail.com"/>
-    <hyperlink ref="A8" r:id="rId7" display="sentry@gmail.com"/>
-    <hyperlink ref="A9" r:id="rId8" display="bluemarvel@gmail.com"/>
-    <hyperlink ref="A10" r:id="rId9" display="taskmaster@gmail.com"/>
-    <hyperlink ref="A11" r:id="rId10" display="spiderkaine@gmail.com"/>
-    <hyperlink ref="A12" r:id="rId11" display="blackbolt@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="payasobebe@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="deadpool@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="mooknight@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="nightcrawler@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId5" display="punisher@gmail.com"/>
+    <hyperlink ref="A7" r:id="rId6" display="ghostrider@gmail.com"/>
+    <hyperlink ref="A8" r:id="rId7" display="webslinger@gmail.com"/>
+    <hyperlink ref="A9" r:id="rId8" display="sentry@gmail.com"/>
+    <hyperlink ref="A10" r:id="rId9" display="bluemarvel@gmail.com"/>
+    <hyperlink ref="A11" r:id="rId10" display="taskmaster@gmail.com"/>
+    <hyperlink ref="A12" r:id="rId11" display="spiderkaine@gmail.com"/>
+    <hyperlink ref="A13" r:id="rId12" display="blackbolt@gmail.com"/>
+    <hyperlink ref="A14" r:id="rId13" display="daredevil@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -498,12 +554,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>41</v>
+      <c r="A2" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
